--- a/运营出入金/新股缴款/输出文件/20201022上交所（泰坦科技）宁波 国泰君安幻方 国泰君安幻方.xlsx
+++ b/运营出入金/新股缴款/输出文件/20201022上交所（泰坦科技）宁波 国泰君安幻方 国泰君安幻方.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E29419BA-2846-4B46-A688-6212021E2221}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1E422BF-69B3-469E-B559-C1148BE9CBE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
